--- a/excel-importer/src/test/resources/CCD_TestDefinition_V12.xlsx
+++ b/excel-importer/src/test/resources/CCD_TestDefinition_V12.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="29005"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrzejfolga/src/ccd/temp/ccd-definition-store-api/excel-importer/src/test/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/space/workspace/ccd-definition-store-api/excel-importer/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B61BC36B-74F2-2C4A-A474-C7F6401C8D7A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="460" windowWidth="28800" windowHeight="16560" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="20" yWindow="460" windowWidth="28800" windowHeight="16560" tabRatio="500" firstSheet="8" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jurisdiction" sheetId="1" r:id="rId1"/>
@@ -27,9 +28,10 @@
     <sheet name="UserProfile" sheetId="13" r:id="rId13"/>
     <sheet name="AuthorisationCaseType" sheetId="14" r:id="rId14"/>
     <sheet name="AuthorisationCaseField" sheetId="15" r:id="rId15"/>
-    <sheet name="AuthorisationCaseEvent" sheetId="16" r:id="rId16"/>
+    <sheet name="AuthorisationComplexType" sheetId="17" r:id="rId16"/>
+    <sheet name="AuthorisationCaseEvent" sheetId="16" r:id="rId17"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -45,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="217">
   <si>
     <t>Jurisdiction</t>
   </si>
@@ -682,19 +684,45 @@
   </si>
   <si>
     <t># ${PersonLastName} - ${[CREATED_DATE]}</t>
+  </si>
+  <si>
+    <t>AuthorisationComplexType</t>
+  </si>
+  <si>
+    <t>Must match ID on 'CaseType' tab
+MaxLength: 70</t>
+  </si>
+  <si>
+    <t>The Field ID should match an ID in the CaseField Tab
+MaxLength: 70</t>
+  </si>
+  <si>
+    <t>The complex type element (field) ID (ListElementId) should match the field attribute name used by the service team in creating the case
+MaxLength: 70</t>
+  </si>
+  <si>
+    <t>Must match ID role.  If a role doesn’t have a Row below that mean no access to.
+MaxLength: 100.</t>
+  </si>
+  <si>
+    <t>C - Create, R - Read, U - Update, D - Delete
+MustBe1OrManyOf: &lt;C,R,U,D&gt; MaxLength: 5</t>
+  </si>
+  <si>
+    <t>UserRole</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="dd\/mm\/yyyy"/>
     <numFmt numFmtId="165" formatCode="d\/m\/yy"/>
     <numFmt numFmtId="166" formatCode="mm/dd/yyyy"/>
     <numFmt numFmtId="167" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -828,6 +856,31 @@
       <name val="Arial"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -852,11 +905,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -919,10 +975,28 @@
     <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{295C6CE8-4178-CA4B-9CAD-A583A968FF3E}"/>
+    <cellStyle name="Normal 2 3" xfId="2" xr:uid="{D5E6D0DD-C207-F248-B481-5EAFA9E11233}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{EC2F92DE-8D3D-8445-B964-6C4B5D7334E2}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1301,7 +1375,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1310,13 +1384,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.19921875" customWidth="1"/>
-    <col min="2" max="2" width="15.3984375" customWidth="1"/>
-    <col min="3" max="3" width="27.3984375" customWidth="1"/>
-    <col min="4" max="4" width="18.19921875" customWidth="1"/>
-    <col min="5" max="5" width="43.796875" customWidth="1"/>
-    <col min="6" max="27" width="8.796875" customWidth="1"/>
-    <col min="28" max="1025" width="14.3984375" customWidth="1"/>
+    <col min="1" max="1" width="17.1640625" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" customWidth="1"/>
+    <col min="4" max="4" width="18.1640625" customWidth="1"/>
+    <col min="5" max="5" width="43.83203125" customWidth="1"/>
+    <col min="6" max="27" width="8.83203125" customWidth="1"/>
+    <col min="28" max="1025" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="18" x14ac:dyDescent="0.2">
@@ -2426,11 +2500,11 @@
     <row r="1000" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>42736</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date that is after LiveFrom" sqref="B4">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date that is after LiveFrom" sqref="B4" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>IF((DATEDIF(A4,B4,"d")&gt;0),B4)</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -2441,7 +2515,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:AA1048576"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2450,14 +2524,14 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="27.3984375" customWidth="1"/>
-    <col min="2" max="2" width="15.3984375" customWidth="1"/>
-    <col min="3" max="3" width="27.796875" customWidth="1"/>
-    <col min="4" max="4" width="18.19921875" customWidth="1"/>
-    <col min="5" max="5" width="19.3984375" customWidth="1"/>
-    <col min="6" max="6" width="12.59765625" customWidth="1"/>
-    <col min="7" max="27" width="8.796875" customWidth="1"/>
-    <col min="28" max="1025" width="14.3984375" customWidth="1"/>
+    <col min="1" max="1" width="27.33203125" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="3" max="3" width="27.83203125" customWidth="1"/>
+    <col min="4" max="4" width="18.1640625" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" customWidth="1"/>
+    <col min="7" max="27" width="8.83203125" customWidth="1"/>
+    <col min="28" max="1025" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="18" x14ac:dyDescent="0.2">
@@ -2480,7 +2554,7 @@
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:27" s="14" customFormat="1" ht="53" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" s="14" customFormat="1" ht="43" x14ac:dyDescent="0.2">
       <c r="A2" s="12"/>
       <c r="B2" s="12"/>
       <c r="C2" s="12" t="s">
@@ -2795,15 +2869,15 @@
     <row r="1048576" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date after 'LiveFrom' date" sqref="B4:B9">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date after 'LiveFrom' date" sqref="B4:B9" xr:uid="{00000000-0002-0000-0900-000000000000}">
       <formula1>IF((DATEDIF(A4,B4,"d")&gt;0),B4)</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number greater than 0" sqref="F4:F9">
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number greater than 0" sqref="F4:F9" xr:uid="{00000000-0002-0000-0900-000001000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A9">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A9" xr:uid="{00000000-0002-0000-0900-000002000000}">
       <formula1>42736</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -2813,7 +2887,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="No fields defined for the case type">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="No fields defined for the case type" xr:uid="{00000000-0002-0000-0900-000003000000}">
           <x14:formula1>
             <xm:f>CaseField!$C$4:$C$1001</xm:f>
           </x14:formula1>
@@ -2822,7 +2896,7 @@
           </x14:formula2>
           <xm:sqref>C4:C9</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a valid field id">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a valid field id" xr:uid="{00000000-0002-0000-0900-000004000000}">
           <x14:formula1>
             <xm:f>CaseField!$D$4:$D$1001</xm:f>
           </x14:formula1>
@@ -2838,7 +2912,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:AA1048576"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2847,15 +2921,15 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="34.59765625" customWidth="1"/>
-    <col min="2" max="2" width="15.3984375" customWidth="1"/>
-    <col min="3" max="3" width="20.3984375" customWidth="1"/>
-    <col min="4" max="4" width="16.3984375" customWidth="1"/>
-    <col min="5" max="5" width="19.3984375" customWidth="1"/>
-    <col min="6" max="6" width="12.59765625" customWidth="1"/>
+    <col min="1" max="1" width="34.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="8" max="27" width="8.796875" customWidth="1"/>
-    <col min="28" max="1025" width="14.3984375" customWidth="1"/>
+    <col min="8" max="27" width="8.83203125" customWidth="1"/>
+    <col min="28" max="1025" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2878,7 +2952,7 @@
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:27" s="14" customFormat="1" ht="52" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:27" s="14" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="A2" s="35"/>
       <c r="B2" s="35"/>
       <c r="C2" s="12" t="s">
@@ -3172,11 +3246,11 @@
     <row r="1048576" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date after 'LiveFrom' date" sqref="B4:B9">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date after 'LiveFrom' date" sqref="B4:B9" xr:uid="{00000000-0002-0000-0A00-000000000000}">
       <formula1>IF((DATEDIF(A4,B4,"d")&gt;0),B4)</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number greater than 0" sqref="F4:F9">
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number greater than 0" sqref="F4:F9" xr:uid="{00000000-0002-0000-0A00-000001000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -3186,7 +3260,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a valid field id">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a valid field id" xr:uid="{00000000-0002-0000-0A00-000002000000}">
           <x14:formula1>
             <xm:f>CaseField!$D$4:$D$1001</xm:f>
           </x14:formula1>
@@ -3195,7 +3269,7 @@
           </x14:formula2>
           <xm:sqref>D4:D9</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="No Fields defined for the case type">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="No Fields defined for the case type" xr:uid="{00000000-0002-0000-0A00-000003000000}">
           <x14:formula1>
             <xm:f>CaseField!$C$4:$C$1001</xm:f>
           </x14:formula1>
@@ -3211,7 +3285,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:AA1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3221,15 +3295,15 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="8.796875" customWidth="1"/>
-    <col min="3" max="3" width="27.796875" customWidth="1"/>
-    <col min="4" max="4" width="31.59765625" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" customWidth="1"/>
+    <col min="3" max="3" width="27.83203125" customWidth="1"/>
+    <col min="4" max="4" width="31.6640625" customWidth="1"/>
     <col min="5" max="6" width="22" customWidth="1"/>
-    <col min="7" max="7" width="16.3984375" customWidth="1"/>
-    <col min="8" max="8" width="40.796875" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" customWidth="1"/>
+    <col min="8" max="8" width="40.83203125" customWidth="1"/>
     <col min="9" max="9" width="21" customWidth="1"/>
-    <col min="10" max="27" width="8.796875" customWidth="1"/>
-    <col min="28" max="1025" width="14.3984375" customWidth="1"/>
+    <col min="10" max="27" width="8.83203125" customWidth="1"/>
+    <col min="28" max="1025" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="18" x14ac:dyDescent="0.2">
@@ -4679,15 +4753,15 @@
     <row r="1000" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date after 'LiveFrom' date" sqref="B4:B16">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date after 'LiveFrom' date" sqref="B4:B16" xr:uid="{00000000-0002-0000-0B00-000000000000}">
       <formula1>IF((DATEDIF(A4,B4,"d")&gt;0),B4)</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A16">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A16" xr:uid="{00000000-0002-0000-0B00-000001000000}">
       <formula1>42736</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number greater than 0" sqref="G4:G16 I4:I16">
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number greater than 0" sqref="G4:G16 I4:I16" xr:uid="{00000000-0002-0000-0B00-000002000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -4697,7 +4771,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a valid case type">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a valid case type" xr:uid="{00000000-0002-0000-0B00-000003000000}">
           <x14:formula1>
             <xm:f>CaseType!$C$4:$C$1000</xm:f>
           </x14:formula1>
@@ -4706,7 +4780,7 @@
           </x14:formula2>
           <xm:sqref>C4:C16</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a valid field">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a valid field" xr:uid="{00000000-0002-0000-0B00-000004000000}">
           <x14:formula1>
             <xm:f>CaseField!$D$4:$D$1001</xm:f>
           </x14:formula1>
@@ -4722,7 +4796,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4731,14 +4805,14 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.19921875" customWidth="1"/>
-    <col min="2" max="2" width="17.796875" customWidth="1"/>
-    <col min="3" max="3" width="18.59765625" customWidth="1"/>
-    <col min="4" max="4" width="28.3984375" style="37" customWidth="1"/>
-    <col min="5" max="5" width="26.796875" style="37" customWidth="1"/>
-    <col min="6" max="6" width="22.796875" customWidth="1"/>
-    <col min="7" max="7" width="24.3984375" customWidth="1"/>
-    <col min="8" max="1025" width="8.796875" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="4" max="4" width="28.33203125" style="37" customWidth="1"/>
+    <col min="5" max="5" width="26.83203125" style="37" customWidth="1"/>
+    <col min="6" max="6" width="22.83203125" customWidth="1"/>
+    <col min="7" max="7" width="24.33203125" customWidth="1"/>
+    <col min="8" max="1025" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="37" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4834,14 +4908,14 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:B6">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:B6" xr:uid="{00000000-0002-0000-0C00-000000000000}">
       <formula1>42736</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1"/>
-    <hyperlink ref="C5" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{00000000-0004-0000-0C00-000000000000}"/>
+    <hyperlink ref="C5" r:id="rId2" xr:uid="{00000000-0004-0000-0C00-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -4849,7 +4923,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4858,11 +4932,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="33.3984375" customWidth="1"/>
-    <col min="2" max="2" width="19.3984375" customWidth="1"/>
-    <col min="3" max="3" width="27.3984375" customWidth="1"/>
-    <col min="4" max="4" width="16.796875" customWidth="1"/>
-    <col min="5" max="1025" width="14.3984375" customWidth="1"/>
+    <col min="1" max="1" width="33.33203125" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.83203125" customWidth="1"/>
+    <col min="5" max="1025" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.2">
@@ -4885,7 +4959,7 @@
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:10" s="14" customFormat="1" ht="52" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" s="14" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="A2" s="35"/>
       <c r="B2" s="35"/>
       <c r="C2" s="12" t="s">
@@ -4967,7 +5041,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:AA42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4977,10 +5051,10 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="33" customWidth="1"/>
-    <col min="2" max="2" width="15.3984375" customWidth="1"/>
-    <col min="3" max="3" width="27.3984375" customWidth="1"/>
-    <col min="4" max="4" width="16.3984375" customWidth="1"/>
-    <col min="5" max="1025" width="14.3984375" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" customWidth="1"/>
+    <col min="5" max="1025" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="18" x14ac:dyDescent="0.2">
@@ -5002,7 +5076,7 @@
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:27" ht="65" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:27" ht="70" x14ac:dyDescent="0.15">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6" t="s">
@@ -5768,7 +5842,91 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9FA31D7-2747-8047-AD1D-F5AF3A71946E}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="144" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="33.1640625" style="49" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" style="49" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5" style="49" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" style="49" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="57.6640625" style="49" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.33203125" style="49" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.33203125" style="49" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="49"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="44" t="s">
+        <v>210</v>
+      </c>
+      <c r="B1" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+    </row>
+    <row r="2" spans="1:7" ht="70" x14ac:dyDescent="0.15">
+      <c r="A2" s="50"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="51" t="s">
+        <v>211</v>
+      </c>
+      <c r="D2" s="51" t="s">
+        <v>212</v>
+      </c>
+      <c r="E2" s="51" t="s">
+        <v>213</v>
+      </c>
+      <c r="F2" s="51" t="s">
+        <v>214</v>
+      </c>
+      <c r="G2" s="51" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="53" t="s">
+        <v>157</v>
+      </c>
+      <c r="E3" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="F3" s="54" t="s">
+        <v>216</v>
+      </c>
+      <c r="G3" s="54" t="s">
+        <v>195</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:AA15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5777,11 +5935,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="34.3984375" customWidth="1"/>
-    <col min="2" max="2" width="15.3984375" customWidth="1"/>
-    <col min="3" max="3" width="27.796875" customWidth="1"/>
-    <col min="4" max="4" width="18.59765625" customWidth="1"/>
-    <col min="5" max="1025" width="14.3984375" customWidth="1"/>
+    <col min="1" max="1" width="34.33203125" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="3" max="3" width="27.83203125" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
+    <col min="5" max="1025" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="18" x14ac:dyDescent="0.2">
@@ -5804,7 +5962,7 @@
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:27" s="14" customFormat="1" ht="65" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:27" s="14" customFormat="1" ht="70" x14ac:dyDescent="0.15">
       <c r="A2" s="12"/>
       <c r="B2" s="12"/>
       <c r="C2" s="12" t="s">
@@ -6084,7 +6242,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AA1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6093,14 +6251,14 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.796875" customWidth="1"/>
+    <col min="1" max="1" width="14.83203125" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="27.796875" customWidth="1"/>
-    <col min="4" max="4" width="31.796875" customWidth="1"/>
-    <col min="5" max="5" width="15.796875" customWidth="1"/>
-    <col min="6" max="6" width="16.3984375" customWidth="1"/>
-    <col min="7" max="27" width="8.796875" customWidth="1"/>
-    <col min="28" max="1025" width="14.3984375" customWidth="1"/>
+    <col min="3" max="3" width="27.83203125" customWidth="1"/>
+    <col min="4" max="4" width="31.83203125" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" customWidth="1"/>
+    <col min="7" max="27" width="8.83203125" customWidth="1"/>
+    <col min="28" max="1025" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="18" x14ac:dyDescent="0.2">
@@ -7248,11 +7406,11 @@
     <row r="1000" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A7">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A7" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>42736</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a value that is after LiveFrom date" sqref="B4:B7">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a value that is after LiveFrom date" sqref="B4:B7" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>IF((DATEDIF(A4,B4,"d")&gt;0),B4)</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -7263,27 +7421,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AA1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.3984375" customWidth="1"/>
-    <col min="2" max="2" width="15.3984375" customWidth="1"/>
-    <col min="3" max="3" width="29.796875" customWidth="1"/>
-    <col min="4" max="4" width="41.3984375" customWidth="1"/>
-    <col min="5" max="5" width="40.796875" customWidth="1"/>
-    <col min="6" max="6" width="24.796875" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="3" max="3" width="29.83203125" customWidth="1"/>
+    <col min="4" max="4" width="41.33203125" customWidth="1"/>
+    <col min="5" max="5" width="40.83203125" customWidth="1"/>
+    <col min="6" max="6" width="24.83203125" customWidth="1"/>
     <col min="7" max="8" width="37" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
-    <col min="10" max="10" width="20.3984375" customWidth="1"/>
+    <col min="10" max="10" width="20.33203125" customWidth="1"/>
     <col min="11" max="11" width="20" customWidth="1"/>
-    <col min="12" max="27" width="8.796875" customWidth="1"/>
-    <col min="28" max="1025" width="14.3984375" customWidth="1"/>
+    <col min="12" max="27" width="8.83203125" customWidth="1"/>
+    <col min="28" max="1025" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="18" x14ac:dyDescent="0.2">
@@ -8802,11 +8960,11 @@
     <row r="1001" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4 A6:A20">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4 A6:A20" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>42736</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a value that after LiveFrom date" sqref="B4 B6:B20">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a value that after LiveFrom date" sqref="B4 B6:B20" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>IF((DATEDIF(A4,B4,"d")&gt;0),B4)</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -8816,7 +8974,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1">
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0200-000002000000}">
           <x14:formula1>
             <xm:f>CaseType!$C$4:$C$1000</xm:f>
           </x14:formula1>
@@ -8832,7 +8990,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AA1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8841,12 +8999,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15.19921875" customWidth="1"/>
-    <col min="2" max="2" width="15.3984375" customWidth="1"/>
-    <col min="3" max="4" width="31.59765625" customWidth="1"/>
-    <col min="5" max="5" width="28.3984375" customWidth="1"/>
-    <col min="6" max="27" width="8.796875" customWidth="1"/>
-    <col min="28" max="1025" width="14.3984375" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="3" max="4" width="31.6640625" customWidth="1"/>
+    <col min="5" max="5" width="28.33203125" customWidth="1"/>
+    <col min="6" max="27" width="8.83203125" customWidth="1"/>
+    <col min="28" max="1025" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="18" x14ac:dyDescent="0.2">
@@ -10040,11 +10198,11 @@
     <row r="1000" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A10">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A10" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>42736</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a value that is after LiveFrom date" sqref="B4:B10">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a value that is after LiveFrom date" sqref="B4:B10" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>IF((DATEDIF(A4,B4,"d")&gt;0),B4)</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -10055,7 +10213,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AA1000"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
@@ -10064,19 +10222,19 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="21.59765625" customWidth="1"/>
-    <col min="2" max="2" width="15.3984375" customWidth="1"/>
-    <col min="3" max="3" width="27.3984375" customWidth="1"/>
-    <col min="4" max="4" width="22.3984375" customWidth="1"/>
-    <col min="5" max="5" width="28.3984375" customWidth="1"/>
-    <col min="6" max="6" width="18.59765625" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" customWidth="1"/>
+    <col min="5" max="5" width="28.33203125" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
-    <col min="8" max="8" width="24.796875" customWidth="1"/>
+    <col min="8" max="8" width="24.83203125" customWidth="1"/>
     <col min="9" max="9" width="37" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
     <col min="11" max="11" width="20" customWidth="1"/>
-    <col min="12" max="27" width="8.796875" customWidth="1"/>
-    <col min="28" max="1025" width="14.3984375" customWidth="1"/>
+    <col min="12" max="27" width="8.83203125" customWidth="1"/>
+    <col min="28" max="1025" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="18" x14ac:dyDescent="0.2">
@@ -11574,11 +11732,11 @@
     <row r="1000" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A20">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A20" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>42736</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a value that is after LiveFrom date" sqref="B4:B20">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a value that is after LiveFrom date" sqref="B4:B20" xr:uid="{00000000-0002-0000-0400-000001000000}">
       <formula1>IF((DATEDIF(A4,B4,"d")&gt;0),B4)</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -11589,7 +11747,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AB1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11598,16 +11756,16 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.3984375" customWidth="1"/>
-    <col min="2" max="2" width="15.3984375" customWidth="1"/>
-    <col min="3" max="3" width="27.796875" customWidth="1"/>
-    <col min="4" max="4" width="27.3984375" customWidth="1"/>
-    <col min="5" max="5" width="31.59765625" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="3" max="3" width="27.83203125" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" customWidth="1"/>
+    <col min="5" max="5" width="31.6640625" customWidth="1"/>
     <col min="6" max="6" width="32" customWidth="1"/>
-    <col min="7" max="7" width="42.19921875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.59765625" customWidth="1"/>
-    <col min="9" max="28" width="8.796875" customWidth="1"/>
-    <col min="29" max="1026" width="14.3984375" customWidth="1"/>
+    <col min="7" max="7" width="42.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" customWidth="1"/>
+    <col min="9" max="28" width="8.83203125" customWidth="1"/>
+    <col min="29" max="1026" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="18" x14ac:dyDescent="0.2">
@@ -12812,15 +12970,15 @@
     <row r="1000" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A9">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A9" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>42736</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a value that is after LiveFrom date" sqref="B4:B9">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a value that is after LiveFrom date" sqref="B4:B9" xr:uid="{00000000-0002-0000-0500-000001000000}">
       <formula1>IF((DATEDIF(A4,B4,"d")&gt;0),B4)</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number greater than 0" sqref="H4:H9">
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number greater than 0" sqref="H4:H9" xr:uid="{00000000-0002-0000-0500-000002000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -12830,7 +12988,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a valid case type">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a valid case type" xr:uid="{00000000-0002-0000-0500-000003000000}">
           <x14:formula1>
             <xm:f>CaseType!$C$4:$C$1000</xm:f>
           </x14:formula1>
@@ -12846,7 +13004,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AC1001"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -12855,23 +13013,23 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15.59765625" customWidth="1"/>
-    <col min="2" max="2" width="15.3984375" customWidth="1"/>
-    <col min="3" max="3" width="27.796875" customWidth="1"/>
-    <col min="4" max="4" width="18.59765625" customWidth="1"/>
-    <col min="5" max="5" width="34.59765625" customWidth="1"/>
-    <col min="6" max="6" width="45.3984375" customWidth="1"/>
-    <col min="7" max="7" width="12.59765625" customWidth="1"/>
-    <col min="8" max="8" width="45.3984375" customWidth="1"/>
-    <col min="9" max="9" width="25.59765625" customWidth="1"/>
-    <col min="10" max="10" width="29.59765625" style="14" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="3" max="3" width="27.83203125" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
+    <col min="5" max="5" width="34.6640625" customWidth="1"/>
+    <col min="6" max="6" width="45.33203125" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" customWidth="1"/>
+    <col min="8" max="8" width="45.33203125" customWidth="1"/>
+    <col min="9" max="9" width="25.6640625" customWidth="1"/>
+    <col min="10" max="10" width="29.6640625" style="14" customWidth="1"/>
     <col min="11" max="11" width="32" style="14" customWidth="1"/>
-    <col min="12" max="12" width="31.3984375" style="14" customWidth="1"/>
-    <col min="13" max="13" width="29.796875" style="14" customWidth="1"/>
-    <col min="14" max="14" width="26.59765625" style="14" customWidth="1"/>
-    <col min="15" max="15" width="29.3984375" style="14" customWidth="1"/>
-    <col min="16" max="29" width="8.796875" customWidth="1"/>
-    <col min="30" max="1025" width="14.3984375" customWidth="1"/>
+    <col min="12" max="12" width="31.33203125" style="14" customWidth="1"/>
+    <col min="13" max="13" width="29.83203125" style="14" customWidth="1"/>
+    <col min="14" max="14" width="26.6640625" style="14" customWidth="1"/>
+    <col min="15" max="15" width="29.33203125" style="14" customWidth="1"/>
+    <col min="16" max="29" width="8.83203125" customWidth="1"/>
+    <col min="30" max="1025" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="18" x14ac:dyDescent="0.2">
@@ -12893,7 +13051,7 @@
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
     </row>
-    <row r="2" spans="1:29" ht="91" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:29" ht="84" x14ac:dyDescent="0.15">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6" t="s">
@@ -14168,15 +14326,15 @@
     <row r="1001" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number greater than 0" sqref="G4:G9">
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number greater than 0" sqref="G4:G9" xr:uid="{00000000-0002-0000-0600-000000000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a value that is after LiveFrom date" sqref="B4:B9">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a value that is after LiveFrom date" sqref="B4:B9" xr:uid="{00000000-0002-0000-0600-000001000000}">
       <formula1>IF((DATEDIF(A4,B4,"d")&gt;0),B4)</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" sqref="A4:A9">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" sqref="A4:A9" xr:uid="{00000000-0002-0000-0600-000002000000}">
       <formula1>42736</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -14186,7 +14344,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a valid case type">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a valid case type" xr:uid="{00000000-0002-0000-0600-000003000000}">
           <x14:formula1>
             <xm:f>CaseType!$C$4:$C$1000</xm:f>
           </x14:formula1>
@@ -14202,7 +14360,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AA1000"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -14211,14 +14369,14 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="37.19921875" customWidth="1"/>
-    <col min="2" max="2" width="15.3984375" customWidth="1"/>
-    <col min="3" max="3" width="27.3984375" customWidth="1"/>
+    <col min="1" max="1" width="37.1640625" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" customWidth="1"/>
     <col min="4" max="4" width="21" customWidth="1"/>
-    <col min="5" max="5" width="20.59765625" customWidth="1"/>
-    <col min="6" max="6" width="21.59765625" customWidth="1"/>
-    <col min="7" max="27" width="8.796875" customWidth="1"/>
-    <col min="28" max="1025" width="14.3984375" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" customWidth="1"/>
+    <col min="7" max="27" width="8.83203125" customWidth="1"/>
+    <col min="28" max="1025" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="18" x14ac:dyDescent="0.2">
@@ -15348,11 +15506,11 @@
     <row r="1000" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A6">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A6" xr:uid="{00000000-0002-0000-0700-000000000000}">
       <formula1>42736</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a value that after LiveFrom date" sqref="B4:B6">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a value that after LiveFrom date" sqref="B4:B6" xr:uid="{00000000-0002-0000-0700-000001000000}">
       <formula1>IF((DATEDIF(A4,B4,"d")&gt;0),B4)</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -15362,7 +15520,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1">
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0700-000002000000}">
           <x14:formula1>
             <xm:f>CaseType!$C$4:$C$1000</xm:f>
           </x14:formula1>
@@ -15378,7 +15536,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:AA1048576"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15387,14 +15545,14 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="18.796875" customWidth="1"/>
-    <col min="2" max="2" width="15.3984375" customWidth="1"/>
-    <col min="3" max="3" width="30.19921875" customWidth="1"/>
-    <col min="4" max="4" width="21.3984375" customWidth="1"/>
-    <col min="5" max="5" width="20.19921875" customWidth="1"/>
-    <col min="6" max="6" width="15.3984375" customWidth="1"/>
-    <col min="7" max="27" width="8.796875" customWidth="1"/>
-    <col min="28" max="1025" width="14.3984375" customWidth="1"/>
+    <col min="1" max="1" width="18.83203125" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="3" max="3" width="30.1640625" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" customWidth="1"/>
+    <col min="5" max="5" width="20.1640625" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" customWidth="1"/>
+    <col min="7" max="27" width="8.83203125" customWidth="1"/>
+    <col min="28" max="1025" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="18" x14ac:dyDescent="0.2">
@@ -15417,7 +15575,7 @@
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:27" s="14" customFormat="1" ht="40" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" s="14" customFormat="1" ht="43" x14ac:dyDescent="0.2">
       <c r="A2" s="12"/>
       <c r="B2" s="12"/>
       <c r="C2" s="12" t="s">
@@ -16005,15 +16163,15 @@
     <row r="1048576" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number greater than 0" sqref="F4:F16">
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number greater than 0" sqref="F4:F16" xr:uid="{00000000-0002-0000-0800-000000000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date that is after 'LiveFrom' date" sqref="B4:B16">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date that is after 'LiveFrom' date" sqref="B4:B16" xr:uid="{00000000-0002-0000-0800-000001000000}">
       <formula1>IF((DATEDIF(A4,A4,"d")&gt;0),A4)</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A16">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A16" xr:uid="{00000000-0002-0000-0800-000002000000}">
       <formula1>42736</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -16023,7 +16181,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a valid field type">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a valid field type" xr:uid="{00000000-0002-0000-0800-000003000000}">
           <x14:formula1>
             <xm:f>CaseField!$D$4:$D$1001</xm:f>
           </x14:formula1>
@@ -16032,7 +16190,7 @@
           </x14:formula2>
           <xm:sqref>D4:D16</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="No fields defined for this case type">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="No fields defined for this case type" xr:uid="{00000000-0002-0000-0800-000004000000}">
           <x14:formula1>
             <xm:f>CaseField!$C$4:$C$1001</xm:f>
           </x14:formula1>

--- a/excel-importer/src/test/resources/CCD_TestDefinition_V12.xlsx
+++ b/excel-importer/src/test/resources/CCD_TestDefinition_V12.xlsx
@@ -1,37 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/space/workspace/ccd-definition-store-api/excel-importer/src/test/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiranyenigala/Projects/CCD/ccd-definition-store-api/excel-importer/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B61BC36B-74F2-2C4A-A474-C7F6401C8D7A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5963D603-99BB-4B4E-9B5B-2D94C5887B5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="460" windowWidth="28800" windowHeight="16560" tabRatio="500" firstSheet="8" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="460" windowWidth="28800" windowHeight="16560" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jurisdiction" sheetId="1" r:id="rId1"/>
-    <sheet name="CaseType" sheetId="2" r:id="rId2"/>
-    <sheet name="CaseField" sheetId="3" r:id="rId3"/>
-    <sheet name="FixedLists" sheetId="4" r:id="rId4"/>
-    <sheet name="ComplexTypes" sheetId="5" r:id="rId5"/>
-    <sheet name="State" sheetId="6" r:id="rId6"/>
-    <sheet name="CaseEvent" sheetId="7" r:id="rId7"/>
-    <sheet name="CaseEventToFields" sheetId="8" r:id="rId8"/>
-    <sheet name="SearchInputFields" sheetId="9" r:id="rId9"/>
-    <sheet name="SearchResultFields" sheetId="10" r:id="rId10"/>
-    <sheet name="WorkBasketResultFields" sheetId="11" r:id="rId11"/>
-    <sheet name="CaseTypeTab" sheetId="12" r:id="rId12"/>
-    <sheet name="UserProfile" sheetId="13" r:id="rId13"/>
-    <sheet name="AuthorisationCaseType" sheetId="14" r:id="rId14"/>
-    <sheet name="AuthorisationCaseField" sheetId="15" r:id="rId15"/>
-    <sheet name="AuthorisationComplexType" sheetId="17" r:id="rId16"/>
-    <sheet name="AuthorisationCaseEvent" sheetId="16" r:id="rId17"/>
+    <sheet name="Banner" sheetId="18" r:id="rId2"/>
+    <sheet name="CaseType" sheetId="2" r:id="rId3"/>
+    <sheet name="CaseField" sheetId="3" r:id="rId4"/>
+    <sheet name="FixedLists" sheetId="4" r:id="rId5"/>
+    <sheet name="ComplexTypes" sheetId="5" r:id="rId6"/>
+    <sheet name="State" sheetId="6" r:id="rId7"/>
+    <sheet name="CaseEvent" sheetId="7" r:id="rId8"/>
+    <sheet name="CaseEventToFields" sheetId="8" r:id="rId9"/>
+    <sheet name="SearchInputFields" sheetId="9" r:id="rId10"/>
+    <sheet name="SearchResultFields" sheetId="10" r:id="rId11"/>
+    <sheet name="WorkBasketResultFields" sheetId="11" r:id="rId12"/>
+    <sheet name="CaseTypeTab" sheetId="12" r:id="rId13"/>
+    <sheet name="UserProfile" sheetId="13" r:id="rId14"/>
+    <sheet name="AuthorisationCaseType" sheetId="14" r:id="rId15"/>
+    <sheet name="AuthorisationCaseField" sheetId="15" r:id="rId16"/>
+    <sheet name="AuthorisationComplexType" sheetId="17" r:id="rId17"/>
+    <sheet name="AuthorisationCaseEvent" sheetId="16" r:id="rId18"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="228">
   <si>
     <t>Jurisdiction</t>
   </si>
@@ -710,6 +711,39 @@
   </si>
   <si>
     <t>UserRole</t>
+  </si>
+  <si>
+    <t>Banner</t>
+  </si>
+  <si>
+    <t>MaxLength:50</t>
+  </si>
+  <si>
+    <t>URL. Mx Length: 1000</t>
+  </si>
+  <si>
+    <t>BannerEnabled</t>
+  </si>
+  <si>
+    <t>BannerDescription</t>
+  </si>
+  <si>
+    <t>BannerUrlText</t>
+  </si>
+  <si>
+    <t>BannerUrl</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>Test Description</t>
+  </si>
+  <si>
+    <t>Click here to see it.&gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>http://localhost:3451/test</t>
   </si>
 </sst>
 </file>
@@ -722,7 +756,7 @@
     <numFmt numFmtId="166" formatCode="mm/dd/yyyy"/>
     <numFmt numFmtId="167" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -881,6 +915,29 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF6A8759"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -896,12 +953,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -912,7 +984,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -990,6 +1062,16 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="49" fontId="22" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2515,6 +2597,676 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:AA1048576"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="18.83203125" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="3" max="3" width="30.1640625" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" customWidth="1"/>
+    <col min="5" max="5" width="20.1640625" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" customWidth="1"/>
+    <col min="7" max="27" width="8.83203125" customWidth="1"/>
+    <col min="28" max="1025" width="14.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+    </row>
+    <row r="2" spans="1:27" s="14" customFormat="1" ht="43" x14ac:dyDescent="0.2">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="28"/>
+      <c r="T2" s="28"/>
+      <c r="U2" s="28"/>
+      <c r="V2" s="28"/>
+      <c r="W2" s="28"/>
+      <c r="X2" s="28"/>
+      <c r="Y2" s="28"/>
+      <c r="Z2" s="28"/>
+      <c r="AA2" s="28"/>
+    </row>
+    <row r="3" spans="1:27" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30"/>
+      <c r="S3" s="30"/>
+      <c r="T3" s="30"/>
+      <c r="U3" s="30"/>
+      <c r="V3" s="30"/>
+      <c r="W3" s="30"/>
+      <c r="X3" s="30"/>
+      <c r="Y3" s="30"/>
+      <c r="Z3" s="30"/>
+      <c r="AA3" s="30"/>
+    </row>
+    <row r="4" spans="1:27" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="10">
+        <v>42736</v>
+      </c>
+      <c r="B4" s="31"/>
+      <c r="C4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="30">
+        <v>1</v>
+      </c>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="30"/>
+      <c r="S4" s="30"/>
+      <c r="T4" s="30"/>
+      <c r="U4" s="30"/>
+      <c r="V4" s="30"/>
+      <c r="W4" s="30"/>
+      <c r="X4" s="30"/>
+      <c r="Y4" s="30"/>
+      <c r="Z4" s="30"/>
+      <c r="AA4" s="30"/>
+    </row>
+    <row r="5" spans="1:27" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5" s="10">
+        <v>42736</v>
+      </c>
+      <c r="B5" s="32"/>
+      <c r="C5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="30">
+        <v>2</v>
+      </c>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="30"/>
+      <c r="R5" s="30"/>
+      <c r="S5" s="30"/>
+      <c r="T5" s="30"/>
+      <c r="U5" s="30"/>
+      <c r="V5" s="30"/>
+      <c r="W5" s="30"/>
+      <c r="X5" s="30"/>
+      <c r="Y5" s="30"/>
+      <c r="Z5" s="30"/>
+      <c r="AA5" s="30"/>
+    </row>
+    <row r="6" spans="1:27" ht="15" x14ac:dyDescent="0.2">
+      <c r="A6" s="10">
+        <v>42736</v>
+      </c>
+      <c r="B6" s="32"/>
+      <c r="C6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="30">
+        <v>3</v>
+      </c>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="30"/>
+      <c r="T6" s="30"/>
+      <c r="U6" s="30"/>
+      <c r="V6" s="30"/>
+      <c r="W6" s="30"/>
+      <c r="X6" s="30"/>
+      <c r="Y6" s="30"/>
+      <c r="Z6" s="30"/>
+      <c r="AA6" s="30"/>
+    </row>
+    <row r="7" spans="1:27" ht="15" x14ac:dyDescent="0.2">
+      <c r="A7" s="10">
+        <v>42736</v>
+      </c>
+      <c r="B7" s="32"/>
+      <c r="C7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="30">
+        <v>1</v>
+      </c>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="30"/>
+      <c r="S7" s="30"/>
+      <c r="T7" s="30"/>
+      <c r="U7" s="30"/>
+      <c r="V7" s="30"/>
+      <c r="W7" s="30"/>
+      <c r="X7" s="30"/>
+      <c r="Y7" s="30"/>
+      <c r="Z7" s="30"/>
+      <c r="AA7" s="30"/>
+    </row>
+    <row r="8" spans="1:27" ht="15" x14ac:dyDescent="0.2">
+      <c r="A8" s="10">
+        <v>42736</v>
+      </c>
+      <c r="B8" s="32"/>
+      <c r="C8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="30">
+        <v>2</v>
+      </c>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="30"/>
+      <c r="R8" s="30"/>
+      <c r="S8" s="30"/>
+      <c r="T8" s="30"/>
+      <c r="U8" s="30"/>
+      <c r="V8" s="30"/>
+      <c r="W8" s="30"/>
+      <c r="X8" s="30"/>
+      <c r="Y8" s="30"/>
+      <c r="Z8" s="30"/>
+      <c r="AA8" s="30"/>
+    </row>
+    <row r="9" spans="1:27" ht="15" x14ac:dyDescent="0.2">
+      <c r="A9" s="10">
+        <v>42736</v>
+      </c>
+      <c r="B9" s="32"/>
+      <c r="C9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="30">
+        <v>3</v>
+      </c>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="30"/>
+      <c r="S9" s="30"/>
+      <c r="T9" s="30"/>
+      <c r="U9" s="30"/>
+      <c r="V9" s="30"/>
+      <c r="W9" s="30"/>
+      <c r="X9" s="30"/>
+      <c r="Y9" s="30"/>
+      <c r="Z9" s="30"/>
+      <c r="AA9" s="30"/>
+    </row>
+    <row r="10" spans="1:27" ht="15" x14ac:dyDescent="0.2">
+      <c r="A10" s="10">
+        <v>42736</v>
+      </c>
+      <c r="B10" s="32"/>
+      <c r="C10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="30">
+        <v>4</v>
+      </c>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="30"/>
+      <c r="R10" s="30"/>
+      <c r="S10" s="30"/>
+      <c r="T10" s="30"/>
+      <c r="U10" s="30"/>
+      <c r="V10" s="30"/>
+      <c r="W10" s="30"/>
+      <c r="X10" s="30"/>
+      <c r="Y10" s="30"/>
+      <c r="Z10" s="30"/>
+      <c r="AA10" s="30"/>
+    </row>
+    <row r="11" spans="1:27" ht="15" x14ac:dyDescent="0.2">
+      <c r="A11" s="10">
+        <v>42736</v>
+      </c>
+      <c r="B11" s="32"/>
+      <c r="C11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="30">
+        <v>5</v>
+      </c>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="30"/>
+      <c r="R11" s="30"/>
+      <c r="S11" s="30"/>
+      <c r="T11" s="30"/>
+      <c r="U11" s="30"/>
+      <c r="V11" s="30"/>
+      <c r="W11" s="30"/>
+      <c r="X11" s="30"/>
+      <c r="Y11" s="30"/>
+      <c r="Z11" s="30"/>
+      <c r="AA11" s="30"/>
+    </row>
+    <row r="12" spans="1:27" ht="15" x14ac:dyDescent="0.2">
+      <c r="A12" s="10">
+        <v>42736</v>
+      </c>
+      <c r="B12" s="32"/>
+      <c r="C12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="30">
+        <v>6</v>
+      </c>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="30"/>
+      <c r="R12" s="30"/>
+      <c r="S12" s="30"/>
+      <c r="T12" s="30"/>
+      <c r="U12" s="30"/>
+      <c r="V12" s="30"/>
+      <c r="W12" s="30"/>
+      <c r="X12" s="30"/>
+      <c r="Y12" s="30"/>
+      <c r="Z12" s="30"/>
+      <c r="AA12" s="30"/>
+    </row>
+    <row r="13" spans="1:27" ht="15" x14ac:dyDescent="0.2">
+      <c r="A13" s="10">
+        <v>42736</v>
+      </c>
+      <c r="B13" s="32"/>
+      <c r="C13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="30">
+        <v>7</v>
+      </c>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="30"/>
+      <c r="R13" s="30"/>
+      <c r="S13" s="30"/>
+      <c r="T13" s="30"/>
+      <c r="U13" s="30"/>
+      <c r="V13" s="30"/>
+      <c r="W13" s="30"/>
+      <c r="X13" s="30"/>
+      <c r="Y13" s="30"/>
+      <c r="Z13" s="30"/>
+      <c r="AA13" s="30"/>
+    </row>
+    <row r="14" spans="1:27" ht="15" x14ac:dyDescent="0.2">
+      <c r="A14" s="10">
+        <v>42736</v>
+      </c>
+      <c r="B14" s="32"/>
+      <c r="C14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="30">
+        <v>8</v>
+      </c>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="30"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="30"/>
+      <c r="R14" s="30"/>
+      <c r="S14" s="30"/>
+      <c r="T14" s="30"/>
+      <c r="U14" s="30"/>
+      <c r="V14" s="30"/>
+      <c r="W14" s="30"/>
+      <c r="X14" s="30"/>
+      <c r="Y14" s="30"/>
+      <c r="Z14" s="30"/>
+      <c r="AA14" s="30"/>
+    </row>
+    <row r="15" spans="1:27" ht="15" x14ac:dyDescent="0.2">
+      <c r="A15" s="10">
+        <v>42736</v>
+      </c>
+      <c r="B15" s="32"/>
+      <c r="C15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="30">
+        <v>9</v>
+      </c>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="30"/>
+      <c r="P15" s="30"/>
+      <c r="Q15" s="30"/>
+      <c r="R15" s="30"/>
+      <c r="S15" s="30"/>
+      <c r="T15" s="30"/>
+      <c r="U15" s="30"/>
+      <c r="V15" s="30"/>
+      <c r="W15" s="30"/>
+      <c r="X15" s="30"/>
+      <c r="Y15" s="30"/>
+      <c r="Z15" s="30"/>
+      <c r="AA15" s="30"/>
+    </row>
+    <row r="16" spans="1:27" ht="15" x14ac:dyDescent="0.2">
+      <c r="A16" s="10">
+        <v>42736</v>
+      </c>
+      <c r="B16" s="32"/>
+      <c r="C16" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="30">
+        <v>10</v>
+      </c>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="30"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="30"/>
+      <c r="R16" s="30"/>
+      <c r="S16" s="30"/>
+      <c r="T16" s="30"/>
+      <c r="U16" s="30"/>
+      <c r="V16" s="30"/>
+      <c r="W16" s="30"/>
+      <c r="X16" s="30"/>
+      <c r="Y16" s="30"/>
+      <c r="Z16" s="30"/>
+      <c r="AA16" s="30"/>
+    </row>
+    <row r="1048576" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  </sheetData>
+  <dataValidations count="3">
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number greater than 0" sqref="F4:F16" xr:uid="{00000000-0002-0000-0800-000000000000}">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date that is after 'LiveFrom' date" sqref="B4:B16" xr:uid="{00000000-0002-0000-0800-000001000000}">
+      <formula1>IF((DATEDIF(A4,A4,"d")&gt;0),A4)</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A16" xr:uid="{00000000-0002-0000-0800-000002000000}">
+      <formula1>42736</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a valid field type" xr:uid="{00000000-0002-0000-0800-000003000000}">
+          <x14:formula1>
+            <xm:f>CaseField!$D$4:$D$1001</xm:f>
+          </x14:formula1>
+          <x14:formula2>
+            <xm:f>0</xm:f>
+          </x14:formula2>
+          <xm:sqref>D4:D16</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="No fields defined for this case type" xr:uid="{00000000-0002-0000-0800-000004000000}">
+          <x14:formula1>
+            <xm:f>CaseField!$C$4:$C$1001</xm:f>
+          </x14:formula1>
+          <x14:formula2>
+            <xm:f>0</xm:f>
+          </x14:formula2>
+          <xm:sqref>C4:C16</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:AA1048576"/>
   <sheetViews>
@@ -2911,7 +3663,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:AA1048576"/>
   <sheetViews>
@@ -3284,7 +4036,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:AA1000"/>
   <sheetViews>
@@ -4795,7 +5547,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:L6"/>
   <sheetViews>
@@ -4922,7 +5674,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:J6"/>
   <sheetViews>
@@ -5040,7 +5792,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:AA42"/>
   <sheetViews>
@@ -5841,11 +6593,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9FA31D7-2747-8047-AD1D-F5AF3A71946E}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="144" workbookViewId="0">
+    <sheetView zoomScale="144" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -5925,7 +6677,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:AA15"/>
   <sheetViews>
@@ -6242,6 +6994,84 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79A01383-EC0C-2E4D-92EB-A3A3F17974DD}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N32" sqref="N32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="55" t="s">
+        <v>217</v>
+      </c>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="57"/>
+    </row>
+    <row r="2" spans="1:5" ht="42" x14ac:dyDescent="0.15">
+      <c r="A2" s="58" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="58" t="s">
+        <v>218</v>
+      </c>
+      <c r="E2" s="58" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="59" t="s">
+        <v>220</v>
+      </c>
+      <c r="C3" s="59" t="s">
+        <v>221</v>
+      </c>
+      <c r="D3" s="59" t="s">
+        <v>222</v>
+      </c>
+      <c r="E3" s="59" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="60" t="s">
+        <v>224</v>
+      </c>
+      <c r="C4" s="61" t="s">
+        <v>225</v>
+      </c>
+      <c r="D4" s="61" t="s">
+        <v>226</v>
+      </c>
+      <c r="E4" s="62" t="s">
+        <v>227</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E4" r:id="rId1" xr:uid="{472790F8-4A77-6040-AA72-270DC6617B04}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AA1000"/>
   <sheetViews>
@@ -7420,7 +8250,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AA1001"/>
   <sheetViews>
@@ -8989,7 +9819,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AA1000"/>
   <sheetViews>
@@ -10212,7 +11042,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AA1000"/>
   <sheetViews>
@@ -11746,7 +12576,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AB1000"/>
   <sheetViews>
@@ -13003,7 +13833,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AC1001"/>
   <sheetViews>
@@ -14359,7 +15189,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AA1000"/>
   <sheetViews>
@@ -15533,674 +16363,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:AA1048576"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="18.83203125" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" customWidth="1"/>
-    <col min="3" max="3" width="30.1640625" customWidth="1"/>
-    <col min="4" max="4" width="21.33203125" customWidth="1"/>
-    <col min="5" max="5" width="20.1640625" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" customWidth="1"/>
-    <col min="7" max="27" width="8.83203125" customWidth="1"/>
-    <col min="28" max="1025" width="14.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:27" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-    </row>
-    <row r="2" spans="1:27" s="14" customFormat="1" ht="43" x14ac:dyDescent="0.2">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="28"/>
-      <c r="S2" s="28"/>
-      <c r="T2" s="28"/>
-      <c r="U2" s="28"/>
-      <c r="V2" s="28"/>
-      <c r="W2" s="28"/>
-      <c r="X2" s="28"/>
-      <c r="Y2" s="28"/>
-      <c r="Z2" s="28"/>
-      <c r="AA2" s="28"/>
-    </row>
-    <row r="3" spans="1:27" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30"/>
-      <c r="S3" s="30"/>
-      <c r="T3" s="30"/>
-      <c r="U3" s="30"/>
-      <c r="V3" s="30"/>
-      <c r="W3" s="30"/>
-      <c r="X3" s="30"/>
-      <c r="Y3" s="30"/>
-      <c r="Z3" s="30"/>
-      <c r="AA3" s="30"/>
-    </row>
-    <row r="4" spans="1:27" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="10">
-        <v>42736</v>
-      </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" s="30">
-        <v>1</v>
-      </c>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="30"/>
-      <c r="R4" s="30"/>
-      <c r="S4" s="30"/>
-      <c r="T4" s="30"/>
-      <c r="U4" s="30"/>
-      <c r="V4" s="30"/>
-      <c r="W4" s="30"/>
-      <c r="X4" s="30"/>
-      <c r="Y4" s="30"/>
-      <c r="Z4" s="30"/>
-      <c r="AA4" s="30"/>
-    </row>
-    <row r="5" spans="1:27" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="10">
-        <v>42736</v>
-      </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5" s="30">
-        <v>2</v>
-      </c>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="30"/>
-      <c r="O5" s="30"/>
-      <c r="P5" s="30"/>
-      <c r="Q5" s="30"/>
-      <c r="R5" s="30"/>
-      <c r="S5" s="30"/>
-      <c r="T5" s="30"/>
-      <c r="U5" s="30"/>
-      <c r="V5" s="30"/>
-      <c r="W5" s="30"/>
-      <c r="X5" s="30"/>
-      <c r="Y5" s="30"/>
-      <c r="Z5" s="30"/>
-      <c r="AA5" s="30"/>
-    </row>
-    <row r="6" spans="1:27" ht="15" x14ac:dyDescent="0.2">
-      <c r="A6" s="10">
-        <v>42736</v>
-      </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E6" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="30">
-        <v>3</v>
-      </c>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="30"/>
-      <c r="R6" s="30"/>
-      <c r="S6" s="30"/>
-      <c r="T6" s="30"/>
-      <c r="U6" s="30"/>
-      <c r="V6" s="30"/>
-      <c r="W6" s="30"/>
-      <c r="X6" s="30"/>
-      <c r="Y6" s="30"/>
-      <c r="Z6" s="30"/>
-      <c r="AA6" s="30"/>
-    </row>
-    <row r="7" spans="1:27" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="10">
-        <v>42736</v>
-      </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="30">
-        <v>1</v>
-      </c>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="30"/>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="30"/>
-      <c r="R7" s="30"/>
-      <c r="S7" s="30"/>
-      <c r="T7" s="30"/>
-      <c r="U7" s="30"/>
-      <c r="V7" s="30"/>
-      <c r="W7" s="30"/>
-      <c r="X7" s="30"/>
-      <c r="Y7" s="30"/>
-      <c r="Z7" s="30"/>
-      <c r="AA7" s="30"/>
-    </row>
-    <row r="8" spans="1:27" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="10">
-        <v>42736</v>
-      </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" s="30">
-        <v>2</v>
-      </c>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="30"/>
-      <c r="P8" s="30"/>
-      <c r="Q8" s="30"/>
-      <c r="R8" s="30"/>
-      <c r="S8" s="30"/>
-      <c r="T8" s="30"/>
-      <c r="U8" s="30"/>
-      <c r="V8" s="30"/>
-      <c r="W8" s="30"/>
-      <c r="X8" s="30"/>
-      <c r="Y8" s="30"/>
-      <c r="Z8" s="30"/>
-      <c r="AA8" s="30"/>
-    </row>
-    <row r="9" spans="1:27" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="10">
-        <v>42736</v>
-      </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="30">
-        <v>3</v>
-      </c>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="30"/>
-      <c r="O9" s="30"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="30"/>
-      <c r="R9" s="30"/>
-      <c r="S9" s="30"/>
-      <c r="T9" s="30"/>
-      <c r="U9" s="30"/>
-      <c r="V9" s="30"/>
-      <c r="W9" s="30"/>
-      <c r="X9" s="30"/>
-      <c r="Y9" s="30"/>
-      <c r="Z9" s="30"/>
-      <c r="AA9" s="30"/>
-    </row>
-    <row r="10" spans="1:27" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="10">
-        <v>42736</v>
-      </c>
-      <c r="B10" s="32"/>
-      <c r="C10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" s="30">
-        <v>4</v>
-      </c>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="30"/>
-      <c r="R10" s="30"/>
-      <c r="S10" s="30"/>
-      <c r="T10" s="30"/>
-      <c r="U10" s="30"/>
-      <c r="V10" s="30"/>
-      <c r="W10" s="30"/>
-      <c r="X10" s="30"/>
-      <c r="Y10" s="30"/>
-      <c r="Z10" s="30"/>
-      <c r="AA10" s="30"/>
-    </row>
-    <row r="11" spans="1:27" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="10">
-        <v>42736</v>
-      </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F11" s="30">
-        <v>5</v>
-      </c>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="30"/>
-      <c r="R11" s="30"/>
-      <c r="S11" s="30"/>
-      <c r="T11" s="30"/>
-      <c r="U11" s="30"/>
-      <c r="V11" s="30"/>
-      <c r="W11" s="30"/>
-      <c r="X11" s="30"/>
-      <c r="Y11" s="30"/>
-      <c r="Z11" s="30"/>
-      <c r="AA11" s="30"/>
-    </row>
-    <row r="12" spans="1:27" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" s="10">
-        <v>42736</v>
-      </c>
-      <c r="B12" s="32"/>
-      <c r="C12" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F12" s="30">
-        <v>6</v>
-      </c>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="30"/>
-      <c r="R12" s="30"/>
-      <c r="S12" s="30"/>
-      <c r="T12" s="30"/>
-      <c r="U12" s="30"/>
-      <c r="V12" s="30"/>
-      <c r="W12" s="30"/>
-      <c r="X12" s="30"/>
-      <c r="Y12" s="30"/>
-      <c r="Z12" s="30"/>
-      <c r="AA12" s="30"/>
-    </row>
-    <row r="13" spans="1:27" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="10">
-        <v>42736</v>
-      </c>
-      <c r="B13" s="32"/>
-      <c r="C13" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F13" s="30">
-        <v>7</v>
-      </c>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="30"/>
-      <c r="R13" s="30"/>
-      <c r="S13" s="30"/>
-      <c r="T13" s="30"/>
-      <c r="U13" s="30"/>
-      <c r="V13" s="30"/>
-      <c r="W13" s="30"/>
-      <c r="X13" s="30"/>
-      <c r="Y13" s="30"/>
-      <c r="Z13" s="30"/>
-      <c r="AA13" s="30"/>
-    </row>
-    <row r="14" spans="1:27" ht="15" x14ac:dyDescent="0.2">
-      <c r="A14" s="10">
-        <v>42736</v>
-      </c>
-      <c r="B14" s="32"/>
-      <c r="C14" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F14" s="30">
-        <v>8</v>
-      </c>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="30"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="30"/>
-      <c r="P14" s="30"/>
-      <c r="Q14" s="30"/>
-      <c r="R14" s="30"/>
-      <c r="S14" s="30"/>
-      <c r="T14" s="30"/>
-      <c r="U14" s="30"/>
-      <c r="V14" s="30"/>
-      <c r="W14" s="30"/>
-      <c r="X14" s="30"/>
-      <c r="Y14" s="30"/>
-      <c r="Z14" s="30"/>
-      <c r="AA14" s="30"/>
-    </row>
-    <row r="15" spans="1:27" ht="15" x14ac:dyDescent="0.2">
-      <c r="A15" s="10">
-        <v>42736</v>
-      </c>
-      <c r="B15" s="32"/>
-      <c r="C15" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F15" s="30">
-        <v>9</v>
-      </c>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="30"/>
-      <c r="N15" s="30"/>
-      <c r="O15" s="30"/>
-      <c r="P15" s="30"/>
-      <c r="Q15" s="30"/>
-      <c r="R15" s="30"/>
-      <c r="S15" s="30"/>
-      <c r="T15" s="30"/>
-      <c r="U15" s="30"/>
-      <c r="V15" s="30"/>
-      <c r="W15" s="30"/>
-      <c r="X15" s="30"/>
-      <c r="Y15" s="30"/>
-      <c r="Z15" s="30"/>
-      <c r="AA15" s="30"/>
-    </row>
-    <row r="16" spans="1:27" ht="15" x14ac:dyDescent="0.2">
-      <c r="A16" s="10">
-        <v>42736</v>
-      </c>
-      <c r="B16" s="32"/>
-      <c r="C16" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="F16" s="30">
-        <v>10</v>
-      </c>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="30"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="30"/>
-      <c r="Q16" s="30"/>
-      <c r="R16" s="30"/>
-      <c r="S16" s="30"/>
-      <c r="T16" s="30"/>
-      <c r="U16" s="30"/>
-      <c r="V16" s="30"/>
-      <c r="W16" s="30"/>
-      <c r="X16" s="30"/>
-      <c r="Y16" s="30"/>
-      <c r="Z16" s="30"/>
-      <c r="AA16" s="30"/>
-    </row>
-    <row r="1048576" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-  </sheetData>
-  <dataValidations count="3">
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number greater than 0" sqref="F4:F16" xr:uid="{00000000-0002-0000-0800-000000000000}">
-      <formula1>0</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date that is after 'LiveFrom' date" sqref="B4:B16" xr:uid="{00000000-0002-0000-0800-000001000000}">
-      <formula1>IF((DATEDIF(A4,A4,"d")&gt;0),A4)</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A16" xr:uid="{00000000-0002-0000-0800-000002000000}">
-      <formula1>42736</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a valid field type" xr:uid="{00000000-0002-0000-0800-000003000000}">
-          <x14:formula1>
-            <xm:f>CaseField!$D$4:$D$1001</xm:f>
-          </x14:formula1>
-          <x14:formula2>
-            <xm:f>0</xm:f>
-          </x14:formula2>
-          <xm:sqref>D4:D16</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="No fields defined for this case type" xr:uid="{00000000-0002-0000-0800-000004000000}">
-          <x14:formula1>
-            <xm:f>CaseField!$C$4:$C$1001</xm:f>
-          </x14:formula1>
-          <x14:formula2>
-            <xm:f>0</xm:f>
-          </x14:formula2>
-          <xm:sqref>C4:C16</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
 </file>